--- a/bw2io/data/examples/sample_parameterized_database.xlsx
+++ b/bw2io/data/examples/sample_parameterized_database.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11014"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10307"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmutel/Code/bw2/io/bw2io/data/examples/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cmutel/Code/bw2gh/io/bw2io/data/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9F9ADE2-2CBD-F841-81FC-65B6E911C19A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D31A0C8D-3D99-A84D-AE4A-A8C01DCBEBEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="640" yWindow="460" windowWidth="27140" windowHeight="17540" tabRatio="795" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,8 +16,9 @@
     <sheet name="Electric car" sheetId="13" r:id="rId1"/>
     <sheet name="Infrastructure" sheetId="14" r:id="rId2"/>
     <sheet name="Gasoline car" sheetId="15" r:id="rId3"/>
+    <sheet name="Biosphere" sheetId="16" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="74">
   <si>
     <t>Database</t>
   </si>
@@ -842,8 +843,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView topLeftCell="A27" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1548,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5106D31B-0978-5C45-A6C0-1D96D9A090E6}">
-  <dimension ref="A1:I37"/>
+  <dimension ref="A1:I31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1677,16 +1678,16 @@
         <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="D13" s="3"/>
     </row>
@@ -1703,7 +1704,7 @@
         <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1711,221 +1712,179 @@
         <v>8</v>
       </c>
       <c r="B16" t="s">
-        <v>9</v>
+        <v>54</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B18" t="s">
-        <v>53</v>
-      </c>
-      <c r="C18" s="2"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" t="s">
-        <v>53</v>
-      </c>
-      <c r="D19" s="3"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="1" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>5</v>
-      </c>
-      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s">
+        <v>54</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E20" t="s">
         <v>23</v>
+      </c>
+      <c r="F20" t="s">
+        <v>20</v>
+      </c>
+      <c r="G20">
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>6</v>
-      </c>
-      <c r="B21" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A22" t="s">
-        <v>8</v>
-      </c>
-      <c r="B22" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B25" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E25" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B21">
+        <v>0.6</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F21" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A23" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B23" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>26</v>
+      </c>
+      <c r="B24" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="3"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
         <v>5</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I25" s="1" t="s">
-        <v>48</v>
+      <c r="B25" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s">
-        <v>54</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E26" t="s">
-        <v>23</v>
-      </c>
-      <c r="F26" t="s">
-        <v>20</v>
-      </c>
-      <c r="G26">
-        <v>0</v>
+        <v>6</v>
+      </c>
+      <c r="B26" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>60</v>
-      </c>
-      <c r="B27">
-        <v>0.6</v>
-      </c>
-      <c r="C27" t="s">
+        <v>8</v>
+      </c>
+      <c r="B27" t="s">
         <v>9</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F27" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:9" ht="16" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" ht="16" x14ac:dyDescent="0.2">
+      <c r="A30" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A30" t="s">
-        <v>26</v>
-      </c>
-      <c r="B30" t="s">
-        <v>37</v>
-      </c>
-      <c r="D30" s="3"/>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B31" t="s">
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A32" t="s">
-        <v>6</v>
-      </c>
-      <c r="B32" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A33" t="s">
-        <v>8</v>
-      </c>
-      <c r="B33" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" ht="16" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="H36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A37" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
-        <v>1</v>
-      </c>
-      <c r="C37" t="s">
-        <v>9</v>
-      </c>
-      <c r="D37" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E37" t="s">
-        <v>23</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="F31" t="s">
         <v>20</v>
       </c>
-      <c r="G37">
+      <c r="G31">
         <v>0</v>
       </c>
     </row>
@@ -1940,7 +1899,7 @@
   <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2194,4 +2153,51 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D315A7-48A2-F744-A767-0328653A153D}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>